--- a/list.xlsx
+++ b/list.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chi\dev\ex\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="330" windowWidth="27795" windowHeight="12285"/>
+    <workbookView xWindow="600" yWindow="330" windowWidth="27800" windowHeight="12290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="페이지에연결할" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10709" uniqueCount="4809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10710" uniqueCount="4810">
   <si>
     <t>동의합니까</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -14477,12 +14482,16 @@
   </si>
   <si>
     <t>dwdb0606@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -14673,6 +14682,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -14720,7 +14732,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14753,9 +14765,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14788,6 +14817,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -14963,14 +15009,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="9" max="9" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="114.08203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" t="s">
@@ -15062,7 +15112,9 @@
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>4809</v>
+      </c>
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
